--- a/src/test/resources/reports/Verification.xlsx
+++ b/src/test/resources/reports/Verification.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Numero bug</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>11:54:24</t>
+  </si>
+  <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>17:15:05</t>
+  </si>
+  <si>
+    <t>17:16:07</t>
+  </si>
+  <si>
+    <t>17:21:27</t>
   </si>
 </sst>
 </file>
@@ -231,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -253,6 +265,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -587,28 +607,28 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="16">
+      <c r="B4" t="s" s="24">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="16">
+      <c r="B5" t="s" s="24">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
